--- a/public/sample_uploads/capital_calls_no_remittances.xlsx
+++ b/public/sample_uploads/capital_calls_no_remittances.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\thimmaiah\work\IRM\public\sample_uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F99B11B2-4AC7-49F5-8F06-30762B21ADF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5CD49FB-0A87-48AD-BF17-2DF0AB109ABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CapitalCall" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
   <si>
     <t>Fund *</t>
   </si>
@@ -70,6 +70,15 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>Pool</t>
+  </si>
+  <si>
+    <t>Type *</t>
+  </si>
+  <si>
+    <t>CoInvest</t>
   </si>
 </sst>
 </file>
@@ -425,23 +434,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13.1875" customWidth="1"/>
-    <col min="2" max="2" width="18.6875" customWidth="1"/>
-    <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="5" width="14.3125" customWidth="1"/>
-    <col min="6" max="6" width="19.0625" customWidth="1"/>
-    <col min="7" max="7" width="17.6875" customWidth="1"/>
+    <col min="2" max="3" width="18.6875" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
+    <col min="5" max="6" width="14.3125" customWidth="1"/>
+    <col min="7" max="7" width="19.0625" customWidth="1"/>
+    <col min="8" max="8" width="17.6875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -449,99 +458,111 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2">
         <v>30</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E2" s="1">
         <v>44905</v>
       </c>
-      <c r="E2" s="2">
+      <c r="F2" s="2">
         <v>44914</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>10</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3">
         <v>10</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E3" s="1">
         <v>44905</v>
       </c>
-      <c r="E3" s="2">
+      <c r="F3" s="2">
         <v>44914</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>14</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>10</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4">
         <v>30</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E4" s="1">
         <v>44905</v>
       </c>
-      <c r="E4" s="2">
+      <c r="F4" s="2">
         <v>44914</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>14</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>10</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>13</v>
       </c>
     </row>

--- a/public/sample_uploads/capital_calls_no_remittances.xlsx
+++ b/public/sample_uploads/capital_calls_no_remittances.xlsx
@@ -1,31 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\thimmaiah\work\IRM\public\sample_uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5CD49FB-0A87-48AD-BF17-2DF0AB109ABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE57C030-5483-499B-9E65-5495C0FB29BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CapitalCall" sheetId="1" r:id="rId1"/>
+    <sheet name="Exchange Rates" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="25">
   <si>
     <t>Fund *</t>
   </si>
@@ -79,6 +75,27 @@
   </si>
   <si>
     <t>CoInvest</t>
+  </si>
+  <si>
+    <t>From Currency</t>
+  </si>
+  <si>
+    <t>To Currency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exchange Rate </t>
+  </si>
+  <si>
+    <t>As Of</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>INR</t>
+  </si>
+  <si>
+    <t>SGD</t>
   </si>
 </sst>
 </file>
@@ -118,8 +135,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -437,7 +454,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F2" sqref="F2:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
@@ -492,11 +509,11 @@
       <c r="D2">
         <v>30</v>
       </c>
-      <c r="E2" s="1">
-        <v>44905</v>
+      <c r="E2" s="2">
+        <v>44571</v>
       </c>
       <c r="F2" s="2">
-        <v>44914</v>
+        <v>44571</v>
       </c>
       <c r="G2" t="s">
         <v>14</v>
@@ -521,11 +538,11 @@
       <c r="D3">
         <v>10</v>
       </c>
-      <c r="E3" s="1">
-        <v>44905</v>
+      <c r="E3" s="2">
+        <v>44722</v>
       </c>
       <c r="F3" s="2">
-        <v>44914</v>
+        <v>44722</v>
       </c>
       <c r="G3" t="s">
         <v>14</v>
@@ -550,11 +567,11 @@
       <c r="D4">
         <v>30</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="2">
         <v>44905</v>
       </c>
       <c r="F4" s="2">
-        <v>44914</v>
+        <v>44905</v>
       </c>
       <c r="G4" t="s">
         <v>14</v>
@@ -570,4 +587,117 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B65ED987-63EC-4547-954A-BA0B0A3C517D}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="1">
+        <v>80</v>
+      </c>
+      <c r="D2" s="2">
+        <v>44571</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="1">
+        <v>81</v>
+      </c>
+      <c r="D3" s="2">
+        <v>44722</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="1">
+        <v>82</v>
+      </c>
+      <c r="D4" s="2">
+        <v>44905</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="1">
+        <v>80</v>
+      </c>
+      <c r="D5" s="2">
+        <v>44571</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="1">
+        <v>81</v>
+      </c>
+      <c r="D6" s="2">
+        <v>44722</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="1">
+        <v>82</v>
+      </c>
+      <c r="D7" s="2">
+        <v>44905</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/public/sample_uploads/capital_calls_no_remittances.xlsx
+++ b/public/sample_uploads/capital_calls_no_remittances.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\thimmaiah\work\IRM\public\sample_uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE57C030-5483-499B-9E65-5495C0FB29BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB5C038-8E62-4320-A655-0F22C95E2BBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="27">
   <si>
     <t>Fund *</t>
   </si>
@@ -96,6 +96,12 @@
   </si>
   <si>
     <t>SGD</t>
+  </si>
+  <si>
+    <t>Call Basis</t>
+  </si>
+  <si>
+    <t>Percentage of Commitment</t>
   </si>
 </sst>
 </file>
@@ -133,8 +139,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -451,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F4"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
@@ -467,7 +472,7 @@
     <col min="8" max="8" width="17.6875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -495,8 +500,11 @@
       <c r="I1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -509,10 +517,10 @@
       <c r="D2">
         <v>30</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>44571</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>44571</v>
       </c>
       <c r="G2" t="s">
@@ -524,8 +532,11 @@
       <c r="I2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -538,10 +549,10 @@
       <c r="D3">
         <v>10</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>44722</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>44722</v>
       </c>
       <c r="G3" t="s">
@@ -553,8 +564,11 @@
       <c r="I3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -567,10 +581,10 @@
       <c r="D4">
         <v>30</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>44905</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>44905</v>
       </c>
       <c r="G4" t="s">
@@ -581,6 +595,9 @@
       </c>
       <c r="I4" t="s">
         <v>13</v>
+      </c>
+      <c r="J4" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -600,100 +617,100 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2">
         <v>80</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>44571</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3">
         <v>81</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>44722</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4">
         <v>82</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>44905</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5">
         <v>80</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>44571</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6">
         <v>81</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>44722</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7">
         <v>82</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>44905</v>
       </c>
     </row>

--- a/public/sample_uploads/capital_calls_no_remittances.xlsx
+++ b/public/sample_uploads/capital_calls_no_remittances.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\thimmaiah\work\IRM\public\sample_uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB5C038-8E62-4320-A655-0F22C95E2BBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F58B1271-4A0E-47DC-B400-0F73E35B735A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="30">
   <si>
     <t>Fund *</t>
   </si>
@@ -102,6 +102,15 @@
   </si>
   <si>
     <t>Percentage of Commitment</t>
+  </si>
+  <si>
+    <t>Unit Price/Premium</t>
+  </si>
+  <si>
+    <t>Series A:100:0,Series B:110:10,Series C:120:20</t>
+  </si>
+  <si>
+    <t>Series A:1000:0,Series B:1100:100,Series C:1200:200</t>
   </si>
 </sst>
 </file>
@@ -111,12 +120,17 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Arial"/>
       <family val="1"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -139,9 +153,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -456,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="K2" sqref="K2:K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
@@ -470,9 +485,11 @@
     <col min="5" max="6" width="14.3125" customWidth="1"/>
     <col min="7" max="7" width="19.0625" customWidth="1"/>
     <col min="8" max="8" width="17.6875" customWidth="1"/>
+    <col min="10" max="10" width="23.0625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.5625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -503,8 +520,11 @@
       <c r="J1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -535,8 +555,11 @@
       <c r="J2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K2" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -567,8 +590,11 @@
       <c r="J3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K3" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -598,6 +624,9 @@
       </c>
       <c r="J4" t="s">
         <v>26</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/public/sample_uploads/capital_calls_no_remittances.xlsx
+++ b/public/sample_uploads/capital_calls_no_remittances.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\thimmaiah\work\IRM\public\sample_uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F58B1271-4A0E-47DC-B400-0F73E35B735A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A4307E-D624-4C85-9FAB-086CE922A9CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15" yWindow="735" windowWidth="23985" windowHeight="14265" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CapitalCall" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="32">
   <si>
     <t>Fund *</t>
   </si>
@@ -111,6 +111,12 @@
   </si>
   <si>
     <t>Series A:1000:0,Series B:1100:100,Series C:1200:200</t>
+  </si>
+  <si>
+    <t>Send Payment Notification</t>
+  </si>
+  <si>
+    <t>Send Call Notice</t>
   </si>
 </sst>
 </file>
@@ -471,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K4"/>
+    <sheetView tabSelected="1" showOutlineSymbols="0" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
@@ -489,7 +495,7 @@
     <col min="11" max="11" width="16.5625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -523,8 +529,14 @@
       <c r="K1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -558,8 +570,14 @@
       <c r="K2" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -593,8 +611,14 @@
       <c r="K3" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -627,6 +651,12 @@
       </c>
       <c r="K4" s="2" t="s">
         <v>29</v>
+      </c>
+      <c r="L4" t="s">
+        <v>14</v>
+      </c>
+      <c r="M4" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/public/sample_uploads/capital_calls_no_remittances.xlsx
+++ b/public/sample_uploads/capital_calls_no_remittances.xlsx
@@ -20,43 +20,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <authors>
-    <author>Unknown Author</author>
-  </authors>
-  <commentList>
-    <comment ref="O1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Author:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">-Incase custom fields are already created, please download the data from the platform to use existing headers to avoid errors while generating documents
--Can add any custom fields as per your requirement</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="32">
   <si>
     <t xml:space="preserve">Fund *</t>
   </si>
@@ -97,9 +62,6 @@
     <t xml:space="preserve">Send Call Notice</t>
   </si>
   <si>
-    <t xml:space="preserve">Close Percentages</t>
-  </si>
-  <si>
     <t xml:space="preserve">SAAS Fund</t>
   </si>
   <si>
@@ -124,13 +86,7 @@
     <t xml:space="preserve">Series A:100:0,Series B:110:10,Series C:120:20</t>
   </si>
   <si>
-    <t xml:space="preserve">{“First Close”: “30”}</t>
-  </si>
-  <si>
     <t xml:space="preserve">Capital Call 8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{“First Close”: “10”}</t>
   </si>
   <si>
     <t xml:space="preserve">Capital Call 6</t>
@@ -171,7 +127,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <name val="Arial"/>
@@ -203,13 +159,6 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -268,19 +217,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -480,196 +429,188 @@
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="false" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L10" activeCellId="0" sqref="L10"/>
+      <selection pane="topLeft" activeCell="O1" activeCellId="0" sqref="O1:O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="14.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="19.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="23.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="16.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="18.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="14.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="19.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="17.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="23.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="16.58"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="E2" s="2" t="n">
+      <c r="E2" s="3" t="n">
         <v>44571</v>
       </c>
-      <c r="F2" s="2" t="n">
+      <c r="F2" s="3" t="n">
         <v>44571</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="5"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="E3" s="3" t="n">
+        <v>44722</v>
+      </c>
+      <c r="F3" s="3" t="n">
+        <v>44722</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="I3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="5"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="E4" s="3" t="n">
+        <v>44905</v>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>44905</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="E3" s="2" t="n">
-        <v>44722</v>
-      </c>
-      <c r="F3" s="2" t="n">
-        <v>44722</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="3" t="s">
+      <c r="I4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="O3" s="5" t="s">
+      <c r="K4" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="E4" s="2" t="n">
-        <v>44905</v>
-      </c>
-      <c r="F4" s="2" t="n">
-        <v>44905</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>22</v>
-      </c>
+      <c r="L4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O4" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -679,7 +620,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -691,106 +631,106 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="false" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="O1:O4 D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6171875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="0" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="C2" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>44571</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="D3" s="3" t="n">
+        <v>44722</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="D4" s="3" t="n">
+        <v>44905</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="0" t="n">
+      <c r="B5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="D2" s="2" t="n">
+      <c r="D5" s="3" t="n">
         <v>44571</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="0" t="n">
+    <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="D3" s="2" t="n">
+      <c r="D6" s="3" t="n">
         <v>44722</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="0" t="n">
+    <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="D4" s="2" t="n">
-        <v>44905</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>80</v>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>44571</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>81</v>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>44722</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>82</v>
-      </c>
-      <c r="D7" s="2" t="n">
+      <c r="D7" s="3" t="n">
         <v>44905</v>
       </c>
     </row>
